--- a/data/outputs/OR_altmetric/33.xlsx
+++ b/data/outputs/OR_altmetric/33.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE43"/>
+  <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1041,6 +1046,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1290,6 +1298,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1540,6 +1551,9 @@
       </c>
       <c r="CE4" t="n">
         <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1784,6 +1798,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2029,6 +2046,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2278,6 +2298,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2533,6 +2556,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,6 +2802,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3037,6 +3066,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3284,6 +3316,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3541,6 +3576,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3799,6 +3837,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="14">
@@ -4041,6 +4082,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4290,6 +4334,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4539,6 +4586,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4784,6 +4834,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5037,6 +5090,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5292,6 +5348,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5535,6 +5594,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5776,6 +5838,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6017,6 +6082,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6276,6 +6344,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6534,6 +6605,9 @@
       </c>
       <c r="CE24" t="n">
         <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
@@ -6776,6 +6850,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7027,6 +7104,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7274,6 +7354,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7524,6 +7607,9 @@
       </c>
       <c r="CE28" t="n">
         <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29">
@@ -7768,6 +7854,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8019,6 +8108,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8262,6 +8354,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8507,6 +8602,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8758,6 +8856,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9007,6 +9108,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9256,6 +9360,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9507,6 +9614,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9765,6 +9875,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="38">
@@ -10005,6 +10118,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10248,6 +10364,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10495,6 +10614,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10734,6 +10856,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10977,6 +11102,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11228,6 +11356,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
